--- a/templates/AutomationOrg/RSTK-9619-Derived Component Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RSTK-9619-Derived Component Receipt Reversal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB29798-A433-4B93-A845-5903F2E71D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3784EA94-7DDA-4C45-B3EA-F87EDA0F99A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Disassembly item name</t>
   </si>
@@ -138,19 +138,34 @@
   </si>
   <si>
     <t>Project Charge Code</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>10 (Denver)</t>
+  </si>
+  <si>
+    <t>OH (On Hand Loc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,9 +188,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,74 +506,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9D0080-B4D2-4351-9E4B-3E7D4A08CBFC}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +596,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,6 +658,9 @@
       <c r="D2">
         <v>2</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -646,6 +675,9 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
@@ -661,10 +693,13 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -675,10 +710,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -698,7 +736,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,6 +793,12 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -814,6 +858,12 @@
       </c>
       <c r="F5">
         <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
